--- a/biology/Botanique/Salix_cantabrica/Salix_cantabrica.xlsx
+++ b/biology/Botanique/Salix_cantabrica/Salix_cantabrica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Salix cantabrica, le Saule des Cantabriques, est une espèce de plantes à fleurs de la famille des Salicaceae. C'est un saule qui se rencontre en Espagne.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Saule des Cantabriques est un arbuste ressemblant à Salix bicolor qui atteint la taille de 2 à 3 m de haut. Les rameaux adultes sont noirs et glabres, rouge sombre en partie grisâtres. Les feuilles mesurent de 5 à 10 × 1-3 cm, sont ovalo-lancéolées et dentées. Les bractées florales sont très velues. Les chatons mâles sont cotonneux, les chatons femelles présentent des pistils tomenteux, un long style et des stigmates bifides[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Saule des Cantabriques est un arbuste ressemblant à Salix bicolor qui atteint la taille de 2 à 3 m de haut. Les rameaux adultes sont noirs et glabres, rouge sombre en partie grisâtres. Les feuilles mesurent de 5 à 10 × 1-3 cm, sont ovalo-lancéolées et dentées. Les bractées florales sont très velues. Les chatons mâles sont cotonneux, les chatons femelles présentent des pistils tomenteux, un long style et des stigmates bifides.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce est présente en bordure des cours d'eau, en zone sujette aux inondations, à une altitude comprise entre  700 et 1 800 mètres, dans la  cordillère Cantabrique, le pic d'Urbión et dans les Pyrénées.
 </t>
@@ -573,13 +589,15 @@
           <t>Taxonomíe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Salix cantabrica est décrite par Karl Heinz Rechinger et publiée dans Oesterr. Bot. Z. 109: 374, en (1962).
 Cytologie
 Chromosomie de S. cantabrica, (Fam. Salicaceae) et taxons infraspécifiques : 2n = 76.
 Étymologie
-Salix: nom générique latin latin pour le saule[2].
+Salix: nom générique latin latin pour le saule.
 cantabrica: épithète géographique qui fait allusion à sa localisation dans les Cantabriques.
 </t>
         </is>
@@ -609,9 +627,11 @@
           <t>Nom vernaculaire en Espagne</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Castillan : salce, salcera, salcino, salguera, salguera serrana[3].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Castillan : salce, salcera, salcino, salguera, salguera serrana.</t>
         </is>
       </c>
     </row>
